--- a/backend/uploads/Test-1.xlsx
+++ b/backend/uploads/Test-1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/Desktop/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FE547-E7D7-0C4E-9089-87F92F84705E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114ACC4-09A9-1F47-9D95-FCACE2EE3983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6340" yWindow="2480" windowWidth="27640" windowHeight="16940" xr2:uid="{D2D66844-10FB-B54A-A5E0-43898D5AED00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>SS34</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>2.4.3</t>
   </si>
 </sst>
 </file>
@@ -809,7 +806,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="I7" s="12"/>
     </row>
